--- a/natmiOut/OldD0/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>245.035198217883</v>
+        <v>282.5164233333333</v>
       </c>
       <c r="H2">
-        <v>245.035198217883</v>
+        <v>847.54927</v>
       </c>
       <c r="I2">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259187</v>
       </c>
       <c r="J2">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.85845247947144</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N2">
-        <v>4.85845247947144</v>
+        <v>4.603615</v>
       </c>
       <c r="O2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q2">
-        <v>1190.491866339449</v>
+        <v>433.5322814012277</v>
       </c>
       <c r="R2">
-        <v>1190.491866339449</v>
+        <v>3901.790532611049</v>
       </c>
       <c r="S2">
-        <v>0.4087122634555461</v>
+        <v>0.1121718992304823</v>
       </c>
       <c r="T2">
-        <v>0.4087122634555461</v>
+        <v>0.1121718992304823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>245.035198217883</v>
+        <v>282.5164233333333</v>
       </c>
       <c r="H3">
-        <v>245.035198217883</v>
+        <v>847.54927</v>
       </c>
       <c r="I3">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259187</v>
       </c>
       <c r="J3">
-        <v>0.7239234941087556</v>
+        <v>0.7504954445259185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.74698515815613</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N3">
-        <v>3.74698515815613</v>
+        <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q3">
-        <v>918.143250948253</v>
+        <v>1405.046932795661</v>
       </c>
       <c r="R3">
-        <v>918.143250948253</v>
+        <v>12645.42239516095</v>
       </c>
       <c r="S3">
-        <v>0.3152112306532094</v>
+        <v>0.3635410550057527</v>
       </c>
       <c r="T3">
-        <v>0.3152112306532094</v>
+        <v>0.3635410550057526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.23132876063219</v>
+        <v>282.5164233333333</v>
       </c>
       <c r="H4">
-        <v>68.23132876063219</v>
+        <v>847.54927</v>
       </c>
       <c r="I4">
-        <v>0.2015802720724194</v>
+        <v>0.7504954445259187</v>
       </c>
       <c r="J4">
-        <v>0.2015802720724194</v>
+        <v>0.7504954445259185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85845247947144</v>
+        <v>3.75909</v>
       </c>
       <c r="N4">
-        <v>4.85845247947144</v>
+        <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q4">
-        <v>331.4986683947245</v>
+        <v>1062.0046617881</v>
       </c>
       <c r="R4">
-        <v>331.4986683947245</v>
+        <v>9558.0419560929</v>
       </c>
       <c r="S4">
-        <v>0.1138080611241028</v>
+        <v>0.2747824902896835</v>
       </c>
       <c r="T4">
-        <v>0.1138080611241028</v>
+        <v>0.2747824902896835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.23132876063219</v>
+        <v>68.514867</v>
       </c>
       <c r="H5">
-        <v>68.23132876063219</v>
+        <v>205.544601</v>
       </c>
       <c r="I5">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="J5">
-        <v>0.2015802720724194</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.74698515815613</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N5">
-        <v>3.74698515815613</v>
+        <v>4.603615</v>
       </c>
       <c r="O5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q5">
-        <v>255.6617761873603</v>
+        <v>105.138689814735</v>
       </c>
       <c r="R5">
-        <v>255.6617761873603</v>
+        <v>946.2482083326149</v>
       </c>
       <c r="S5">
-        <v>0.08777221094831658</v>
+        <v>0.02720352560830086</v>
       </c>
       <c r="T5">
-        <v>0.08777221094831658</v>
+        <v>0.02720352560830086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.2156471903911</v>
+        <v>68.514867</v>
       </c>
       <c r="H6">
-        <v>25.2156471903911</v>
+        <v>205.544601</v>
       </c>
       <c r="I6">
-        <v>0.07449623381882503</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="J6">
-        <v>0.07449623381882503</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.85845247947144</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N6">
-        <v>4.85845247947144</v>
+        <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q6">
-        <v>122.5090236136327</v>
+        <v>340.746929305665</v>
       </c>
       <c r="R6">
-        <v>122.5090236136327</v>
+        <v>3066.722363750985</v>
       </c>
       <c r="S6">
-        <v>0.0420590360594533</v>
+        <v>0.08816466929205956</v>
       </c>
       <c r="T6">
-        <v>0.0420590360594533</v>
+        <v>0.08816466929205954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.2156471903911</v>
+        <v>68.514867</v>
       </c>
       <c r="H7">
-        <v>25.2156471903911</v>
+        <v>205.544601</v>
       </c>
       <c r="I7">
-        <v>0.07449623381882503</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="J7">
-        <v>0.07449623381882503</v>
+        <v>0.1820074562714184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.74698515815613</v>
+        <v>3.75909</v>
       </c>
       <c r="N7">
-        <v>3.74698515815613</v>
+        <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q7">
-        <v>94.48265577569677</v>
+        <v>257.55355139103</v>
       </c>
       <c r="R7">
-        <v>94.48265577569677</v>
+        <v>2317.98196251927</v>
       </c>
       <c r="S7">
-        <v>0.03243719775937173</v>
+        <v>0.06663926137105797</v>
       </c>
       <c r="T7">
-        <v>0.03243719775937173</v>
+        <v>0.06663926137105797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>25.40860066666666</v>
+      </c>
+      <c r="H8">
+        <v>76.22580199999999</v>
+      </c>
+      <c r="I8">
+        <v>0.06749709920266306</v>
+      </c>
+      <c r="J8">
+        <v>0.06749709920266304</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.534538333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.603615</v>
+      </c>
+      <c r="O8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="P8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="Q8">
+        <v>38.99047171935887</v>
+      </c>
+      <c r="R8">
+        <v>350.9142454742299</v>
+      </c>
+      <c r="S8">
+        <v>0.01008837277472577</v>
+      </c>
+      <c r="T8">
+        <v>0.01008837277472577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>25.40860066666666</v>
+      </c>
+      <c r="H9">
+        <v>76.22580199999999</v>
+      </c>
+      <c r="I9">
+        <v>0.06749709920266306</v>
+      </c>
+      <c r="J9">
+        <v>0.06749709920266304</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.973328333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.919985</v>
+      </c>
+      <c r="O9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="P9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="Q9">
+        <v>126.3653136058855</v>
+      </c>
+      <c r="R9">
+        <v>1137.28782245297</v>
+      </c>
+      <c r="S9">
+        <v>0.03269569033755361</v>
+      </c>
+      <c r="T9">
+        <v>0.0326956903375536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>25.40860066666666</v>
+      </c>
+      <c r="H10">
+        <v>76.22580199999999</v>
+      </c>
+      <c r="I10">
+        <v>0.06749709920266306</v>
+      </c>
+      <c r="J10">
+        <v>0.06749709920266304</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.75909</v>
+      </c>
+      <c r="N10">
+        <v>11.27727</v>
+      </c>
+      <c r="O10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="P10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="Q10">
+        <v>95.51321668005998</v>
+      </c>
+      <c r="R10">
+        <v>859.6189501205398</v>
+      </c>
+      <c r="S10">
+        <v>0.02471303609038368</v>
+      </c>
+      <c r="T10">
+        <v>0.02471303609038367</v>
       </c>
     </row>
   </sheetData>
